--- a/Admission/AdmissionInfo2024.xlsx
+++ b/Admission/AdmissionInfo2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>User ID</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>pamtena8@gmail.com</t>
+  </si>
+  <si>
+    <t>2025thescript@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +597,33 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>71564</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Admission/AdmissionInfo2024.xlsx
+++ b/Admission/AdmissionInfo2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>User ID</t>
   </si>
@@ -44,10 +44,10 @@
     <t>Program Name</t>
   </si>
   <si>
-    <t>megangeline08@gmail.com</t>
-  </si>
-  <si>
-    <t>Transferee</t>
+    <t>fabian.megangeline2003@gmail.com</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
   <si>
     <t>Grade 12 student</t>
@@ -56,40 +56,10 @@
     <t>Filipino Applicant</t>
   </si>
   <si>
-    <t>ABM</t>
-  </si>
-  <si>
-    <t>Bachelor of Science In Hospitality Management</t>
-  </si>
-  <si>
-    <t>fabianmeg74@gmail.com</t>
-  </si>
-  <si>
-    <t>SHS Graduate</t>
-  </si>
-  <si>
-    <t>Foreign Applicant</t>
-  </si>
-  <si>
     <t>TVL</t>
   </si>
   <si>
     <t>Bachelor of Science In Information Technology</t>
-  </si>
-  <si>
-    <t>fabian.megangeline2003@gmail.com</t>
-  </si>
-  <si>
-    <t>shanleygalo0000@gmail.com</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>pamtena8@gmail.com</t>
-  </si>
-  <si>
-    <t>2025thescript@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -428,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +437,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>31143</v>
+        <v>38710</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -490,141 +460,6 @@
       <c r="H2"/>
       <c r="I2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>21664</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>13416</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>74283</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>67395</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>71564</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
